--- a/knn_results/results_kropt.xlsx
+++ b/knn_results/results_kropt.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tair\PycharmProjects\MAI-IML-W3\knn_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CBF14FFD-DB60-4068-8F50-23A420A6C20D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6347F17C-4501-4A95-B72D-90694407004A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kropt_results" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,38 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kropt_results!$A$1:$F$109</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">metric!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">metric!$A$2:$A$37</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">k!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">k!$C$2:$C$28</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">k!$D$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">k!$D$2:$D$28</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">voting!$A$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">voting!$A$2:$A$37</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">voting!$B$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">voting!$B$2:$B$37</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">voting!$C$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">voting!$C$2:$C$37</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">metric!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">weighting!$A$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">weighting!$A$2:$A$37</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">weighting!$B$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">weighting!$B$2:$B$37</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">weighting!$C$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">weighting!$C$2:$C$37</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">weighting!$A$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">weighting!$A$2:$A$37</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">weighting!$B$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">weighting!$B$2:$B$37</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">metric!$B$2:$B$37</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">weighting!$C$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">weighting!$C$2:$C$37</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">metric!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">metric!$C$2:$C$37</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">k!$A$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">k!$A$2:$A$28</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">k!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">k!$B$2:$B$28</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -155,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -736,6 +768,2996 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{6C25D411-12A5-49D7-B7F9-8D244792588A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>camberra</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{FC78B835-F35B-4DCC-AA42-8D496D2739AA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>euclidean</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{362A75B9-5D9F-40A3-8F6F-F53BAC20FA93}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>manhattan</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>accuracy</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{F717AA87-6739-47EF-903A-8CD5C03406C3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>k1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{809372C8-ADFC-4316-B580-05291C4BE756}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>k3</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{590EE00A-AD95-4469-910E-EC9139F82A2E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>k5</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{4828A39C-03AB-4D66-815B-7BAE363A9571}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>k7</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>accuracy</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{63A3698E-702A-4741-B2F9-A7A3C3E87D36}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>inverse_distance_weighted</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C98A8EEF-1B71-442F-A6D9-248393F84B9E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>majority_class</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{9CA759CB-4DDA-4077-B7D4-392FB7125434}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>sheppards_work</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>accuracy</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.27</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.29</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.31</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{565C88E3-AAE7-4365-A87A-D8AEA23CCC18}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:v>equal_weight</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0653F804-DD54-4887-8547-B9C5F19B15F4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:v>info_gain</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0F34D852-A036-4870-B395-9C8F2552980C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:v>ReliefF</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>accuracy</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{533F44EB-C4C4-45E5-BE45-9C730BE6C516}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3261360" y="2945130"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD7A66B-664B-4908-84D4-AC02CC01560B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3444240" y="3120390"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2862595-3E84-464C-BDDA-3A00E17326FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4892040" y="2907030"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B6259D-4C9C-4261-BAB5-4DBF96980082}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3444240" y="3128010"/>
+              <a:ext cx="4861560" cy="3074670"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1032,10 +4054,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -3228,17 +6250,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F109"/>
+  <autoFilter ref="A1:F109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3813,15 +6835,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4393,15 +7416,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4979,21 +8003,23 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -5136,7 +8162,7 @@
         <v>0.28923462513869014</v>
       </c>
       <c r="J7" s="2">
-        <v>6.0901683784714206E-5</v>
+        <v>6.0901683784714199E-5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -5563,5 +8589,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>